--- a/geographical_analysis/inflation_unemp/stopa_bezrobocia_10_2023.xlsx
+++ b/geographical_analysis/inflation_unemp/stopa_bezrobocia_10_2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piotr\Desktop\R_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1208A9CF-EFA9-4400-B3BA-BAD126EDF1E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B8D0A0A-DA3F-4C3A-9764-C0EDA7A0DEE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4089,8 +4089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K406"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="C154" sqref="C154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10975,7 +10975,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11109,7 +11109,7 @@
         <v>434</v>
       </c>
       <c r="B16">
-        <v>8.5</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
   </sheetData>
